--- a/Experimento_JP.xlsx
+++ b/Experimento_JP.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\afchavez19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$87</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="99">
   <si>
     <t>Nombre</t>
   </si>
@@ -252,6 +250,75 @@
   </si>
   <si>
     <t>Xiadani</t>
+  </si>
+  <si>
+    <t>Fer Quezada</t>
+  </si>
+  <si>
+    <t>Tamara</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Susy</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Oscar F</t>
+  </si>
+  <si>
+    <t>Pau García</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Botello</t>
+  </si>
+  <si>
+    <t>Sebas</t>
+  </si>
+  <si>
+    <t>Juliàn</t>
+  </si>
+  <si>
+    <t>Jime</t>
+  </si>
+  <si>
+    <t>Rodrigo Núñez</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Pichardo</t>
+  </si>
+  <si>
+    <t>Emiliano V</t>
+  </si>
+  <si>
+    <t>Diana S.</t>
+  </si>
+  <si>
+    <t>Valeria Rico</t>
+  </si>
+  <si>
+    <t>René</t>
+  </si>
+  <si>
+    <t>Montse Fugarolas</t>
+  </si>
+  <si>
+    <t>Arantxa K</t>
+  </si>
+  <si>
+    <t>Karina</t>
+  </si>
+  <si>
+    <t>Ara Roa</t>
   </si>
 </sst>
 </file>
@@ -349,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +451,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -561,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,6 +747,9 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -703,6 +773,9 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -726,6 +799,9 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -749,11 +825,17 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
+      <c r="B8">
+        <v>510</v>
+      </c>
       <c r="C8">
         <v>16</v>
       </c>
@@ -768,6 +850,9 @@
       </c>
       <c r="G8" t="s">
         <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,6 +877,9 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -815,6 +903,9 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -838,6 +929,9 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -861,6 +955,9 @@
       <c r="G12" t="s">
         <v>17</v>
       </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -884,6 +981,9 @@
       <c r="G13">
         <v>24</v>
       </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -907,6 +1007,9 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -930,6 +1033,9 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -953,6 +1059,9 @@
       <c r="G16" t="s">
         <v>17</v>
       </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -976,6 +1085,9 @@
       <c r="G17" t="s">
         <v>17</v>
       </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -999,6 +1111,9 @@
       <c r="G18" t="s">
         <v>17</v>
       </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1022,6 +1137,9 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1045,6 +1163,9 @@
       <c r="G20" t="s">
         <v>17</v>
       </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1654,6 +1775,9 @@
       <c r="B44">
         <v>420</v>
       </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
       <c r="D44">
         <v>5.9</v>
       </c>
@@ -1989,6 +2113,12 @@
       <c r="B57">
         <v>420</v>
       </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
       <c r="E57" t="s">
         <v>15</v>
       </c>
@@ -2113,6 +2243,9 @@
       <c r="B62">
         <v>420</v>
       </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
       <c r="D62">
         <v>8.6</v>
       </c>
@@ -2136,6 +2269,9 @@
       <c r="B63">
         <v>420</v>
       </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
       <c r="D63">
         <v>7</v>
       </c>
@@ -2150,6 +2286,630 @@
       </c>
       <c r="I63">
         <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>410</v>
+      </c>
+      <c r="C64">
+        <v>15</v>
+      </c>
+      <c r="D64">
+        <v>9.5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65">
+        <v>410</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66">
+        <v>410</v>
+      </c>
+      <c r="C66">
+        <v>16</v>
+      </c>
+      <c r="D66">
+        <v>8.1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67">
+        <v>410</v>
+      </c>
+      <c r="C67">
+        <v>16</v>
+      </c>
+      <c r="D67">
+        <v>7.4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68">
+        <v>410</v>
+      </c>
+      <c r="C68">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69">
+        <v>410</v>
+      </c>
+      <c r="C69">
+        <v>15</v>
+      </c>
+      <c r="D69">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70">
+        <v>410</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>8.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71">
+        <v>410</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72">
+        <v>410</v>
+      </c>
+      <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73">
+        <v>410</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>9.6</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74">
+        <v>410</v>
+      </c>
+      <c r="C74">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75">
+        <v>410</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75">
+        <v>9.6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76">
+        <v>410</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77">
+        <v>410</v>
+      </c>
+      <c r="C77">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78">
+        <v>410</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79">
+        <v>410</v>
+      </c>
+      <c r="C79">
+        <v>16</v>
+      </c>
+      <c r="D79">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80">
+        <v>410</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81">
+        <v>410</v>
+      </c>
+      <c r="C81">
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <v>7.6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82">
+        <v>410</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83">
+        <v>410</v>
+      </c>
+      <c r="C83">
+        <v>17</v>
+      </c>
+      <c r="D83">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84">
+        <v>410</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85">
+        <v>410</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86">
+        <v>410</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87">
+        <v>410</v>
+      </c>
+      <c r="C87">
+        <v>15</v>
+      </c>
+      <c r="D87">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
